--- a/biology/Botanique/Campomanesia/Campomanesia.xlsx
+++ b/biology/Botanique/Campomanesia/Campomanesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campomanesia est un genre de plantes de la famille des Myrtaceae comportant environ 30 espèces. Ce sont des arbustes ou arbrisseaux du Néotropique. L'espèce type est Campomanesia lineatifolia Ruiz &amp; Pav..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campomanesia correspond à des arbustes hauts de moins d'1 m, à des arbres hauts de 15. Ils portent des trichomes blanchâtres, jaunâtres ou légers bruns rougeâtre, unicellulaire, simple, mesurant environ 1 mm de long. Les feuilles persistantes ou caduques au bout d'un an, sont membraneuses à coriaces raides. La nervation est généralement brochidodrome avec des nervures latérales classées larges, une nervure marginale non clairement différenciée. On trouve souvent des touffes de trichomes, sur la surface inférieure, à l'aisselle des nervures principales. L'inflorescence se compose généralement de fleurs axillaires solitaires ou de dichasium à 3 fleurs, avec des pédoncules insérés à l'aisselle de feuilles ou de bractées réduites, parfois agrégées sur de courtes pousses de depuis les bractées. Les fleurs pentamères présentent un calice ouvert, ou fermé à divers degrés. Les bractéoles sont linéaires, étroitement elliptiques ou lancéolées, généralement caduques lors de l'anthèse. On compte 60 à 700 étamines, blanchâtre, repliée vers le centre lorsque le bouton est fermé. Les pétales sont blanchâtres, suborbiculaires ou obovés, et mesurent de 3-30 mm de long. L'ovaire compte (3) 4-18 loges, dont la paroi devient glanduleuse, submembraneuse ou légèrement ligneuse dans les fruits matures, et servent de faux tégument aux graines. On compte 4-20 ovules par loge, disposés normalement en 2 rangées longitudinales (sauf en cas d'avortement d'une loge). Les fruits sont des baies de globuleuse pouvant atteindre environ 7,5 cm de diamètre. On compte normalement 1 graine par loge ou aucune, pour un total d'environ 1 à 4 par fruit. Le tégument de la graine apparaît sous forme d'une mince membrane, souvent indétectable quand le fruit est mature. L'embryon est enroulé, huileux, rougeâtre. L'hypocotyle est épaissi et les cotylédons sont relativement petits[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campomanesia correspond à des arbustes hauts de moins d'1 m, à des arbres hauts de 15. Ils portent des trichomes blanchâtres, jaunâtres ou légers bruns rougeâtre, unicellulaire, simple, mesurant environ 1 mm de long. Les feuilles persistantes ou caduques au bout d'un an, sont membraneuses à coriaces raides. La nervation est généralement brochidodrome avec des nervures latérales classées larges, une nervure marginale non clairement différenciée. On trouve souvent des touffes de trichomes, sur la surface inférieure, à l'aisselle des nervures principales. L'inflorescence se compose généralement de fleurs axillaires solitaires ou de dichasium à 3 fleurs, avec des pédoncules insérés à l'aisselle de feuilles ou de bractées réduites, parfois agrégées sur de courtes pousses de depuis les bractées. Les fleurs pentamères présentent un calice ouvert, ou fermé à divers degrés. Les bractéoles sont linéaires, étroitement elliptiques ou lancéolées, généralement caduques lors de l'anthèse. On compte 60 à 700 étamines, blanchâtre, repliée vers le centre lorsque le bouton est fermé. Les pétales sont blanchâtres, suborbiculaires ou obovés, et mesurent de 3-30 mm de long. L'ovaire compte (3) 4-18 loges, dont la paroi devient glanduleuse, submembraneuse ou légèrement ligneuse dans les fruits matures, et servent de faux tégument aux graines. On compte 4-20 ovules par loge, disposés normalement en 2 rangées longitudinales (sauf en cas d'avortement d'une loge). Les fruits sont des baies de globuleuse pouvant atteindre environ 7,5 cm de diamètre. On compte normalement 1 graine par loge ou aucune, pour un total d'environ 1 à 4 par fruit. Le tégument de la graine apparaît sous forme d'une mince membrane, souvent indétectable quand le fruit est mature. L'embryon est enroulé, huileux, rougeâtre. L'hypocotyle est épaissi et les cotylédons sont relativement petits.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Campomanesia est présent en Amérique du Sud tropicale et subtropicale, depuis Trinidad jusqu'au sud-est du Brésil (où il est le plus diversifié)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Campomanesia est présent en Amérique du Sud tropicale et subtropicale, depuis Trinidad jusqu'au sud-est du Brésil (où il est le plus diversifié).
 </t>
         </is>
       </c>
@@ -573,10 +589,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[4] :
-Espèces valides
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Campomanesia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campomanesia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Campomanesia adamantium (Cambess.) O.Berg
 Campomanesia anemonea Landrum
 Campomanesia aprica (Vell.) O.Berg
@@ -615,7 +669,43 @@
 Campomanesia transalpina (Vell.) O.Berg
 Campomanesia velutina (Cambess.) O.Berg
 Campomanesia xanthocarpa (Mart.) O.Berg
-Nomenclatures taxonomiques non résolues
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Campomanesia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campomanesia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nomenclatures taxonomiques non résolues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Campomanesia arenaria O.Berg
 Campomanesia crassifolia Benth.
 Campomanesia dentata O.Berg
